--- a/exportedData/Students List.xlsx
+++ b/exportedData/Students List.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,28 +440,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Daawwit Gurmuun jedhama</v>
+        <v>Jskjd</v>
       </c>
       <c r="B2" t="str">
-        <v>0976761750</v>
+        <v>Jsjdjdkd</v>
       </c>
       <c r="C2" t="str">
-        <v>Naqamtee</v>
+        <v>Jejejd</v>
       </c>
       <c r="D2" t="str">
-        <v>W.W.W.M.Y.Calalaqii naqamtee</v>
+        <v>Kekejjd</v>
       </c>
       <c r="E2" t="str">
-        <v>Block 372 room 24</v>
+        <v>Jekejd</v>
       </c>
       <c r="F2" t="str">
-        <v>Kuwaarii taheen faarfachaa ture</v>
+        <v>Ksjdjd</v>
       </c>
       <c r="G2" t="str">
         <v>Engineering</v>
       </c>
-      <c r="H2" t="str">
-        <v>Mon Dec 04 2023</v>
+      <c r="H2" s="1">
+        <v>45265.000185185185</v>
       </c>
     </row>
   </sheetData>
